--- a/Base/Teams/Bengals/Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C2">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="C2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Bengals/Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C2">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="C2">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>6</v>

--- a/Base/Teams/Bengals/Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C3">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="C3">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>6</v>

--- a/Base/Teams/Bengals/Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="C2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="C2">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>7</v>

--- a/Base/Teams/Bengals/Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="C2">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="D2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>7</v>

--- a/Base/Teams/Bengals/Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="C2">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="C2">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>7</v>

--- a/Base/Teams/Bengals/Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="C3">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C3">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D3">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Bengals/Target Depth Data.xlsx
+++ b/Base/Teams/Bengals/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="C3">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="C3">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="D3">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
